--- a/Doc/毕业论文/Reference/ZigBee协议栈.xlsx
+++ b/Doc/毕业论文/Reference/ZigBee协议栈.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\78286\Documents\毕设\毕业论文\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Case\case-STM32\190109_Graduation_project\Doc\毕业论文\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44FBB4E-6CE6-44BB-B967-734A71A9D492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F8613-C4FC-4A27-97E6-A4AC60778A52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{A04F1DD2-6274-43DD-853F-1FDB7863765F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>…</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CRC16[4…17]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>发送偏移量
 (Byte)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -128,6 +124,10 @@
   </si>
   <si>
     <t>总片数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16[4…9]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -239,6 +239,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -251,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,12 +349,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -275,6 +357,42 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -608,185 +726,185 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="C3" s="7"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4">
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>16</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>26</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>22</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -805,207 +923,177 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BA94E3-1601-4FEA-AE87-A60A96419E68}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H1" sqref="H1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="12.625" style="6" customWidth="1"/>
-    <col min="5" max="8" width="9" style="6"/>
-    <col min="9" max="10" width="12.625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="12.625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="12.625" style="4" customWidth="1"/>
+    <col min="5" max="8" width="9" style="4"/>
+    <col min="9" max="10" width="12.625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>20</v>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="H2" s="4">
+      <c r="D2" s="3"/>
+      <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4">
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="3">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>4</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="J7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="3">
         <v>10</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C9"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="I4:J5"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:C6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/毕业论文/Reference/ZigBee协议栈.xlsx
+++ b/Doc/毕业论文/Reference/ZigBee协议栈.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Case\case-STM32\190109_Graduation_project\Doc\毕业论文\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F8613-C4FC-4A27-97E6-A4AC60778A52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02EDB9-D151-4504-B236-0EA1EB3646B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{A04F1DD2-6274-43DD-853F-1FDB7863765F}"/>
   </bookViews>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0x18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>偏移量
 (Byte)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -111,10 +107,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>承载上层数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>监测点编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -128,6 +120,14 @@
   </si>
   <si>
     <t>CRC16[4…9]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>承载应用层数据</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -364,6 +364,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,18 +392,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,7 +726,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>7</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="3">
@@ -765,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="3">
@@ -777,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -791,7 +791,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="3">
@@ -926,7 +926,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J7"/>
+      <selection activeCell="D8" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -941,20 +941,20 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -970,7 +970,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3"/>
       <c r="H2" s="3">
@@ -985,10 +985,10 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="15"/>
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="3">
         <v>0</v>
       </c>
@@ -1002,10 +1002,10 @@
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9"/>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="3">
         <v>2</v>
       </c>
@@ -1021,8 +1021,8 @@
       <c r="A5" s="3">
         <v>6</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -1036,8 +1036,8 @@
       <c r="A6" s="3">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3">
         <v>6</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J6" s="7"/>
     </row>
@@ -1054,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -1069,31 +1069,31 @@
         <v>6</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>12</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="15"/>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="3">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:C6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:C6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/毕业论文/Reference/ZigBee协议栈.xlsx
+++ b/Doc/毕业论文/Reference/ZigBee协议栈.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Case\case-STM32\190109_Graduation_project\Doc\毕业论文\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02EDB9-D151-4504-B236-0EA1EB3646B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA19973-2D14-4F48-BA8B-7FB089AF2B7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{A04F1DD2-6274-43DD-853F-1FDB7863765F}"/>
+    <workbookView xWindow="-8505" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{A04F1DD2-6274-43DD-853F-1FDB7863765F}"/>
   </bookViews>
   <sheets>
     <sheet name="传输层变长协议" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>…</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -128,6 +128,30 @@
   </si>
   <si>
     <t>承载应用层数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧前缀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧数据部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧主体</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -327,6 +351,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -339,7 +400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,34 +425,52 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7AB816-68C0-464B-B083-EDCF4CE73F7A}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E6" sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -724,7 +803,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -735,8 +814,11 @@
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -747,8 +829,11 @@
         <v>13</v>
       </c>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -759,8 +844,11 @@
       <c r="D3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -771,8 +859,9 @@
       <c r="D4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6</v>
       </c>
@@ -785,8 +874,9 @@
       <c r="D5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8</v>
       </c>
@@ -797,8 +887,11 @@
       <c r="D6" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>10</v>
       </c>
@@ -807,8 +900,9 @@
       <c r="D7" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>12</v>
       </c>
@@ -817,8 +911,9 @@
       <c r="D8" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>14</v>
       </c>
@@ -827,8 +922,9 @@
       <c r="D9" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>16</v>
       </c>
@@ -837,8 +933,9 @@
       <c r="D10" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>18</v>
       </c>
@@ -847,8 +944,9 @@
       <c r="D11" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>20</v>
       </c>
@@ -857,8 +955,9 @@
       <c r="D12" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>22</v>
       </c>
@@ -867,8 +966,9 @@
       <c r="D13" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>24</v>
       </c>
@@ -877,8 +977,9 @@
       <c r="D14" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>26</v>
       </c>
@@ -887,8 +988,9 @@
       <c r="D15" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -897,8 +999,9 @@
       <c r="D16" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -907,13 +1010,16 @@
       <c r="D17" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E17" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C17"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -926,7 +1032,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:D8"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -943,12 +1049,15 @@
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -973,6 +1082,9 @@
         <v>23</v>
       </c>
       <c r="D2" s="3"/>
+      <c r="E2" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="H2" s="3">
         <v>0</v>
       </c>
@@ -985,12 +1097,15 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="3">
         <v>0</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -1002,13 +1117,14 @@
       <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3">
         <v>2</v>
       </c>
+      <c r="E4" s="22"/>
       <c r="H4" s="3">
         <v>4</v>
       </c>
@@ -1021,11 +1137,12 @@
       <c r="A5" s="3">
         <v>6</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
+      <c r="E5" s="22"/>
       <c r="H5" s="3">
         <v>6</v>
       </c>
@@ -1036,11 +1153,12 @@
       <c r="A6" s="3">
         <v>8</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="3">
         <v>6</v>
       </c>
+      <c r="E6" s="22"/>
       <c r="H6" s="3">
         <v>8</v>
       </c>
@@ -1062,6 +1180,7 @@
       <c r="D7" s="3">
         <v>8</v>
       </c>
+      <c r="E7" s="22"/>
       <c r="H7" s="3">
         <v>10</v>
       </c>
@@ -1076,16 +1195,17 @@
       <c r="A8" s="3">
         <v>12</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="3">
         <v>10</v>
       </c>
+      <c r="E8" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B4:C6"/>
@@ -1094,6 +1214,7 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="I4:J5"/>
+    <mergeCell ref="E3:E8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
